--- a/Hardware/PPG-Module/Set-Mile-PPG-Module-BOM.xlsx
+++ b/Hardware/PPG-Module/Set-Mile-PPG-Module-BOM.xlsx
@@ -1,25 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mstar\Desktop\Set-Mile\Hardware\PPG-Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60CAED12-78DF-46B4-9559-DEACE4F57009}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5B2F4A6-A7F4-41BD-94D8-4138CC4661C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{E54BD6D6-A27D-40D3-873B-76BD1078AEC6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -28,15 +25,419 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Orlando Hoilett</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{A9F47569-85D0-5C42-A1F5-FBCFBB5574F6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Comment is short name that identifies the component.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{7DA9B791-C248-8945-A013-B13AF8365648}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Designator is the component name in the .sch file. Be sure these are logical.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{A732FC15-C42D-A34D-8ECA-6CDB505EE07F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>I usually just copy and paste this from the supplier's website. It's a long description that describes the component</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{6B88A2FF-ACA5-2749-9C3A-B898F216F01C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SMD is surface mount
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">THT is through hole.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>You can also have Panel Mount, Chassis Mount, etc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{5E94D935-79D1-BE4B-895F-3EF2DDB6B177}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Replace this with a website link if ordering from Amazon, but for most engineering suppliers (SparkFun, Digi-Key, McMaster-Carr) a part number is preferred. Web links get broken fairly regularly. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4414EC97-401B-5C4D-BF38-03085F1F044A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is just an example to show you what information to list and how to list them.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{42ADFC76-2A16-3F4B-9937-20E1DF8DC9D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>This is just an example to show you what information to list and how to list them.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{92578C3E-17AC-CF40-B33B-C67DBD723ACA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is just an example to show you what information to list and how to list them.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{B87F5F84-059E-824D-B1C3-C6D21A6C0FC3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is just an example to show you what information to list and how to list them.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{8D3ED184-945A-F444-9885-2E4FC0FBB6A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is just an example to show you what information to list and how to list them.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{7F187FCD-1E21-9644-AE5D-0FA5E52F65FA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Orlando Hoilett:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is just an example to show you what information to list and how to list them.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Set-Mile -- Revision Code / Designer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>BOM #</t>
   </si>
@@ -44,34 +445,281 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Designator</t>
   </si>
   <si>
-    <t xml:space="preserve">Description </t>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Supplier Part Number</t>
+  </si>
+  <si>
+    <t>Digi-Key</t>
+  </si>
+  <si>
+    <t>Mounting Type</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Price per unit</t>
+  </si>
+  <si>
+    <t>10k resistor</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>Samsung Electro-Mechanics</t>
+  </si>
+  <si>
+    <t>Stackpole Electronics Inc</t>
+  </si>
+  <si>
+    <t>1uF capacitor</t>
+  </si>
+  <si>
+    <t>LM358</t>
+  </si>
+  <si>
+    <t>Photoresistor</t>
+  </si>
+  <si>
+    <t>9V Battery Connector</t>
+  </si>
+  <si>
+    <t>1µF ±10% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>CL10A105KA8NNNC</t>
+  </si>
+  <si>
+    <t>1276-1102-1-ND</t>
+  </si>
+  <si>
+    <t>Per 100</t>
+  </si>
+  <si>
+    <t>White  LED Indication - Discrete 2.9V Radial</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>Radial</t>
+  </si>
+  <si>
+    <t>American Bright Optoelectronics Corporation</t>
+  </si>
+  <si>
+    <t>BL-BZX3V4V-1-B02</t>
+  </si>
+  <si>
+    <t>BL-BZX3V4V-1-B02-ND</t>
+  </si>
+  <si>
+    <t>White LED</t>
+  </si>
+  <si>
+    <t>Battery Connector, Snap 9V 1 Cell Wire Leads - 4" (101.6mm)</t>
+  </si>
+  <si>
+    <t>Keystone Electronics</t>
+  </si>
+  <si>
+    <t>81-4</t>
+  </si>
+  <si>
+    <t>36-81-4-ND</t>
+  </si>
+  <si>
+    <t>9V</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>General Purpose Amplifier 2 Circuit  8-SOIC</t>
+  </si>
+  <si>
+    <t>8-SOIC</t>
+  </si>
+  <si>
+    <t>LM358DR</t>
+  </si>
+  <si>
+    <t>296-1014-1-ND</t>
+  </si>
+  <si>
+    <t>OP1</t>
+  </si>
+  <si>
+    <t>Total (in Bulk)</t>
+  </si>
+  <si>
+    <t>CDS Cell 520nm 27 ~ 60kOhms @ 10 lux</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Advanced Photonix</t>
+  </si>
+  <si>
+    <t>PDV-P8104</t>
+  </si>
+  <si>
+    <t>PDV-P8104-ND</t>
+  </si>
+  <si>
+    <t>10 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>R1,R2,R3</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10K0</t>
+  </si>
+  <si>
+    <t>RMCF0603FT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>Design Name -- Revision Code / Designer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -79,24 +727,268 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="82">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -119,44 +1011,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -184,31 +1076,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -236,23 +1111,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -264,214 +1122,609 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB7D334-1AB5-46D9-9869-BA09EDC7A97D}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.8125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.8125" style="1"/>
+    <col min="12" max="12" width="6.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.8125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="15.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="6">
+        <f>SUM(M3:M77)</f>
+        <v>2.48</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="6">
+        <f>SUM(O3:O77)</f>
+        <v>1.1271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.5">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.5">
+      <c r="A3" s="8">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" ref="M3:M8" si="0">K3*L3</f>
+        <v>0.38</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0.1391</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" ref="O3:O7" si="1">L3*N3</f>
+        <v>0.1391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.5">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.89</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" si="0"/>
+        <v>0.89</v>
+      </c>
+      <c r="N4" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.5">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L5" s="11">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N5" s="10">
+        <v>0.3982</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="1"/>
+        <v>0.3982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.26</v>
+      </c>
+      <c r="L6" s="11">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="N6" s="10">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="1"/>
+        <v>9.0899999999999995E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.5">
+      <c r="A7" s="8">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="11">
+        <v>3</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="N7" s="10">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="1"/>
+        <v>2.0399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.5">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
+      <c r="M8" s="10">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="N8" s="10">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="O8" s="10">
+        <f>L8*N8</f>
+        <v>1.8499999999999999E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>